--- a/Table_S1.xlsx
+++ b/Table_S1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasmusher/Documents/ANSDU/Tinamous/github/Tinamou-phylogenomics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasmusher/Documents/ANSDU/Tinamous/github/Tinamou-phylogenomics2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7101BD5D-BAB3-2D4A-B59C-8878E07F2C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D900261F-FE12-A345-A89D-2269800928C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="880" windowWidth="30800" windowHeight="14680" xr2:uid="{7367DE2F-202D-6940-AF1D-ED413473DB55}"/>
+    <workbookView xWindow="4980" yWindow="2840" windowWidth="30800" windowHeight="14680" xr2:uid="{7367DE2F-202D-6940-AF1D-ED413473DB55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="434">
   <si>
     <t>Fragmented BUSCOs</t>
   </si>
@@ -987,9 +987,6 @@
     <t>SAMN27385480</t>
   </si>
   <si>
-    <t>PRJNA811218</t>
-  </si>
-  <si>
     <t>SAMN27385481</t>
   </si>
   <si>
@@ -1333,6 +1330,12 @@
   </si>
   <si>
     <t>tiosg311159</t>
+  </si>
+  <si>
+    <t>costaricensis</t>
+  </si>
+  <si>
+    <t>perf</t>
   </si>
 </sst>
 </file>
@@ -1687,15 +1690,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1707,34 +1710,34 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1744,23 +1747,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1768,13 +1765,13 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1813,16 +1810,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1845,9 +1836,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1885,7 +1876,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1991,7 +1982,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2133,7 +2124,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2143,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF70DEC8-19A6-284A-855E-A977AE60E674}">
   <dimension ref="A1:Q88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2155,7 +2146,7 @@
     <col min="4" max="4" width="13.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
@@ -2206,7 +2197,7 @@
         <v>95</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>0</v>
@@ -2245,7 +2236,7 @@
         <v>86</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>86</v>
@@ -2265,7 +2256,7 @@
       <c r="O2" s="8">
         <v>0.27400000000000002</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="41" t="s">
         <v>86</v>
       </c>
       <c r="Q2" s="1"/>
@@ -2296,7 +2287,7 @@
         <v>86</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J3" s="3">
         <v>43.622100000000003</v>
@@ -2316,7 +2307,7 @@
       <c r="O3" s="8">
         <v>4.7E-2</v>
       </c>
-      <c r="P3" s="43" t="s">
+      <c r="P3" s="41" t="s">
         <v>91</v>
       </c>
       <c r="Q3" s="1"/>
@@ -2347,7 +2338,7 @@
         <v>51</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J4" s="3">
         <v>33.248100000000001</v>
@@ -2367,7 +2358,7 @@
       <c r="O4" s="8">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="P4" s="43" t="s">
+      <c r="P4" s="41" t="s">
         <v>91</v>
       </c>
       <c r="Q4" s="1"/>
@@ -2398,7 +2389,7 @@
         <v>86</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J5" s="3">
         <v>54.991500000000002</v>
@@ -2418,26 +2409,26 @@
       <c r="O5" s="8">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="P5" s="43" t="s">
+      <c r="P5" s="41" t="s">
         <v>91</v>
       </c>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>99</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>86</v>
+        <v>432</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>85</v>
@@ -2445,17 +2436,17 @@
       <c r="G6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="23" t="s">
-        <v>341</v>
+      <c r="H6" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>86</v>
+        <v>421</v>
+      </c>
+      <c r="J6" s="3">
+        <v>9.4636399999999998</v>
+      </c>
+      <c r="K6" s="3">
+        <v>61.969799999999999</v>
       </c>
       <c r="L6" s="8">
         <v>0.80200000000000005</v>
@@ -2469,7 +2460,7 @@
       <c r="O6" s="8">
         <v>0.111</v>
       </c>
-      <c r="P6" s="43" t="s">
+      <c r="P6" s="41" t="s">
         <v>91</v>
       </c>
       <c r="Q6" s="1"/>
@@ -2500,7 +2491,7 @@
         <v>53</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J7" s="3">
         <v>41.300800000000002</v>
@@ -2520,7 +2511,7 @@
       <c r="O7" s="8">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="P7" s="43" t="s">
+      <c r="P7" s="41" t="s">
         <v>91</v>
       </c>
       <c r="Q7" s="1"/>
@@ -2551,7 +2542,7 @@
         <v>86</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J8" s="3">
         <v>23.044699999999999</v>
@@ -2571,7 +2562,7 @@
       <c r="O8" s="8">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="P8" s="43" t="s">
+      <c r="P8" s="41" t="s">
         <v>91</v>
       </c>
       <c r="Q8" s="1"/>
@@ -2602,7 +2593,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J9" s="3">
         <v>44.751300000000001</v>
@@ -2622,7 +2613,7 @@
       <c r="O9" s="8">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="P9" s="43" t="s">
+      <c r="P9" s="41" t="s">
         <v>92</v>
       </c>
       <c r="Q9" s="1"/>
@@ -2653,7 +2644,7 @@
         <v>2213</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J10" s="3">
         <v>84.189099999999996</v>
@@ -2673,7 +2664,7 @@
       <c r="O10" s="8">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="P10" s="43" t="s">
+      <c r="P10" s="41" t="s">
         <v>92</v>
       </c>
       <c r="Q10" s="1"/>
@@ -2704,7 +2695,7 @@
         <v>86</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>86</v>
@@ -2724,7 +2715,7 @@
       <c r="O11" s="8">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="P11" s="43" t="s">
+      <c r="P11" s="41" t="s">
         <v>86</v>
       </c>
       <c r="Q11" s="1"/>
@@ -2755,7 +2746,7 @@
         <v>86</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J12" s="3">
         <v>35.724899999999998</v>
@@ -2775,7 +2766,7 @@
       <c r="O12" s="8">
         <v>0.05</v>
       </c>
-      <c r="P12" s="43" t="s">
+      <c r="P12" s="41" t="s">
         <v>91</v>
       </c>
       <c r="Q12" s="1"/>
@@ -2806,7 +2797,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J13" s="3">
         <v>25.61</v>
@@ -2826,8 +2817,8 @@
       <c r="O13" s="8">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="P13" s="43" t="s">
-        <v>347</v>
+      <c r="P13" s="41" t="s">
+        <v>346</v>
       </c>
       <c r="Q13" s="1"/>
     </row>
@@ -2857,7 +2848,7 @@
         <v>86</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J14" s="3">
         <v>14.293699999999999</v>
@@ -2877,7 +2868,7 @@
       <c r="O14" s="8">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="P14" s="43" t="s">
+      <c r="P14" s="41" t="s">
         <v>91</v>
       </c>
       <c r="Q14" s="1"/>
@@ -2908,7 +2899,7 @@
         <v>86</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J15" s="3">
         <v>31.6768</v>
@@ -2928,7 +2919,7 @@
       <c r="O15" s="8">
         <v>0.05</v>
       </c>
-      <c r="P15" s="43" t="s">
+      <c r="P15" s="41" t="s">
         <v>91</v>
       </c>
       <c r="Q15" s="1"/>
@@ -2959,7 +2950,7 @@
         <v>14</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J16" s="3">
         <v>35.093000000000004</v>
@@ -2979,7 +2970,7 @@
       <c r="O16" s="8">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="P16" s="43" t="s">
+      <c r="P16" s="41" t="s">
         <v>91</v>
       </c>
       <c r="Q16" s="1"/>
@@ -3010,7 +3001,7 @@
         <v>15</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J17" s="3">
         <v>38.247199999999999</v>
@@ -3030,7 +3021,7 @@
       <c r="O17" s="8">
         <v>0.05</v>
       </c>
-      <c r="P17" s="43" t="s">
+      <c r="P17" s="41" t="s">
         <v>91</v>
       </c>
       <c r="Q17" s="1"/>
@@ -3061,7 +3052,7 @@
         <v>18669</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J18" s="3">
         <v>35.570399999999999</v>
@@ -3081,7 +3072,7 @@
       <c r="O18" s="8">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="P18" s="43" t="s">
+      <c r="P18" s="41" t="s">
         <v>91</v>
       </c>
       <c r="Q18" s="1"/>
@@ -3112,7 +3103,7 @@
         <v>60</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J19" s="3">
         <v>45.873199999999997</v>
@@ -3132,7 +3123,7 @@
       <c r="O19" s="8">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="P19" s="43" t="s">
+      <c r="P19" s="41" t="s">
         <v>91</v>
       </c>
       <c r="Q19" s="1"/>
@@ -3163,7 +3154,7 @@
         <v>86</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J20" s="3">
         <v>42.040700000000001</v>
@@ -3183,7 +3174,7 @@
       <c r="O20" s="8">
         <v>0.05</v>
       </c>
-      <c r="P20" s="43" t="s">
+      <c r="P20" s="41" t="s">
         <v>91</v>
       </c>
       <c r="Q20" s="1"/>
@@ -3214,7 +3205,7 @@
         <v>71</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J21" s="3">
         <v>43.211300000000001</v>
@@ -3234,7 +3225,7 @@
       <c r="O21" s="8">
         <v>0.05</v>
       </c>
-      <c r="P21" s="43" t="s">
+      <c r="P21" s="41" t="s">
         <v>91</v>
       </c>
       <c r="Q21" s="1"/>
@@ -3265,7 +3256,7 @@
         <v>17</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J22" s="3">
         <v>49.944000000000003</v>
@@ -3285,7 +3276,7 @@
       <c r="O22" s="8">
         <v>0.05</v>
       </c>
-      <c r="P22" s="43" t="s">
+      <c r="P22" s="41" t="s">
         <v>91</v>
       </c>
       <c r="Q22" s="1"/>
@@ -3316,7 +3307,7 @@
         <v>75</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J23" s="3">
         <v>41.385199999999998</v>
@@ -3336,7 +3327,7 @@
       <c r="O23" s="8">
         <v>0.05</v>
       </c>
-      <c r="P23" s="43" t="s">
+      <c r="P23" s="41" t="s">
         <v>91</v>
       </c>
       <c r="Q23" s="1"/>
@@ -3367,7 +3358,7 @@
         <v>86</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>86</v>
@@ -3387,17 +3378,17 @@
       <c r="O24" s="8">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="P24" s="43" t="s">
+      <c r="P24" s="41" t="s">
         <v>86</v>
       </c>
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>337</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>99</v>
@@ -3414,11 +3405,11 @@
       <c r="G25" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H25" s="23" t="s">
-        <v>335</v>
+      <c r="H25" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>86</v>
@@ -3426,19 +3417,19 @@
       <c r="K25" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="L25" s="27">
+      <c r="L25" s="25">
         <v>0.92400000000000004</v>
       </c>
-      <c r="M25" s="27">
+      <c r="M25" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="N25" s="27">
+      <c r="N25" s="25">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="O25" s="27">
+      <c r="O25" s="25">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="P25" s="43" t="s">
+      <c r="P25" s="41" t="s">
         <v>86</v>
       </c>
       <c r="Q25" s="1"/>
@@ -3469,7 +3460,7 @@
         <v>8</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J26" s="3">
         <v>45.473500000000001</v>
@@ -3489,7 +3480,7 @@
       <c r="O26" s="8">
         <v>0.05</v>
       </c>
-      <c r="P26" s="43" t="s">
+      <c r="P26" s="41" t="s">
         <v>91</v>
       </c>
       <c r="Q26" s="1"/>
@@ -3520,7 +3511,7 @@
         <v>62</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J27" s="3">
         <v>43.493699999999997</v>
@@ -3540,7 +3531,7 @@
       <c r="O27" s="8">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="P27" s="43" t="s">
+      <c r="P27" s="41" t="s">
         <v>91</v>
       </c>
       <c r="Q27" s="1"/>
@@ -3571,7 +3562,7 @@
         <v>64</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J28" s="3">
         <v>10.4152</v>
@@ -3591,7 +3582,7 @@
       <c r="O28" s="8">
         <v>0.88</v>
       </c>
-      <c r="P28" s="43" t="s">
+      <c r="P28" s="41" t="s">
         <v>91</v>
       </c>
       <c r="Q28" s="1"/>
@@ -3622,7 +3613,7 @@
         <v>86</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J29" s="3">
         <v>50.374499999999998</v>
@@ -3642,7 +3633,7 @@
       <c r="O29" s="8">
         <v>0.05</v>
       </c>
-      <c r="P29" s="43" t="s">
+      <c r="P29" s="41" t="s">
         <v>91</v>
       </c>
       <c r="Q29" s="1"/>
@@ -3673,7 +3664,7 @@
         <v>86</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>86</v>
@@ -3693,7 +3684,7 @@
       <c r="O30" s="8">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="P30" s="43" t="s">
+      <c r="P30" s="41" t="s">
         <v>86</v>
       </c>
       <c r="Q30" s="1"/>
@@ -3724,7 +3715,7 @@
         <v>19</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J31" s="3">
         <v>33.679600000000001</v>
@@ -3744,17 +3735,17 @@
       <c r="O31" s="8">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="P31" s="43" t="s">
+      <c r="P31" s="41" t="s">
         <v>91</v>
       </c>
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>99</v>
@@ -3763,39 +3754,39 @@
         <v>127</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F32" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="G32" s="23" t="s">
+      <c r="G32" s="3" t="s">
         <v>86</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="J32" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K32" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="L32" s="25">
+        <v>411</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L32" s="8">
         <v>0.93799999999999994</v>
       </c>
-      <c r="M32" s="25">
+      <c r="M32" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="N32" s="25">
+      <c r="N32" s="8">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="O32" s="25">
+      <c r="O32" s="8">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="P32" s="44" t="s">
+      <c r="P32" s="41" t="s">
         <v>86</v>
       </c>
       <c r="Q32" s="1"/>
@@ -3826,7 +3817,7 @@
         <v>20</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J33" s="3">
         <v>62.221299999999999</v>
@@ -3846,7 +3837,7 @@
       <c r="O33" s="8">
         <v>0.05</v>
       </c>
-      <c r="P33" s="43" t="s">
+      <c r="P33" s="41" t="s">
         <v>91</v>
       </c>
       <c r="Q33" s="1"/>
@@ -3877,7 +3868,7 @@
         <v>22</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J34" s="3">
         <v>40.895899999999997</v>
@@ -3897,7 +3888,7 @@
       <c r="O34" s="8">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="P34" s="43" t="s">
+      <c r="P34" s="41" t="s">
         <v>91</v>
       </c>
       <c r="Q34" s="1"/>
@@ -3928,7 +3919,7 @@
         <v>56</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J35" s="3">
         <v>43.34</v>
@@ -3948,8 +3939,8 @@
       <c r="O35" s="8">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="P35" s="43" t="s">
-        <v>347</v>
+      <c r="P35" s="41" t="s">
+        <v>346</v>
       </c>
       <c r="Q35" s="1"/>
     </row>
@@ -3979,7 +3970,7 @@
         <v>23</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J36" s="3">
         <v>83.33</v>
@@ -3999,8 +3990,8 @@
       <c r="O36" s="8">
         <v>0.03</v>
       </c>
-      <c r="P36" s="43" t="s">
-        <v>347</v>
+      <c r="P36" s="41" t="s">
+        <v>346</v>
       </c>
       <c r="Q36" s="1"/>
     </row>
@@ -4030,7 +4021,7 @@
         <v>24</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J37" s="3">
         <v>48.99</v>
@@ -4050,8 +4041,8 @@
       <c r="O37" s="8">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="P37" s="43" t="s">
-        <v>347</v>
+      <c r="P37" s="41" t="s">
+        <v>346</v>
       </c>
       <c r="Q37" s="1"/>
     </row>
@@ -4081,7 +4072,7 @@
         <v>65</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J38" s="3">
         <v>39.770000000000003</v>
@@ -4101,8 +4092,8 @@
       <c r="O38" s="8">
         <v>3.1E-2</v>
       </c>
-      <c r="P38" s="43" t="s">
-        <v>347</v>
+      <c r="P38" s="41" t="s">
+        <v>346</v>
       </c>
       <c r="Q38" s="1"/>
     </row>
@@ -4132,7 +4123,7 @@
         <v>26</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J39" s="3">
         <v>51.259900000000002</v>
@@ -4152,7 +4143,7 @@
       <c r="O39" s="8">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="P39" s="43" t="s">
+      <c r="P39" s="41" t="s">
         <v>91</v>
       </c>
       <c r="Q39" s="1"/>
@@ -4183,7 +4174,7 @@
         <v>86</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>86</v>
@@ -4203,7 +4194,7 @@
       <c r="O40" s="8">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="P40" s="43" t="s">
+      <c r="P40" s="41" t="s">
         <v>86</v>
       </c>
       <c r="Q40" s="1"/>
@@ -4234,7 +4225,7 @@
         <v>28</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J41" s="3">
         <v>47.121699999999997</v>
@@ -4254,7 +4245,7 @@
       <c r="O41" s="8">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="P41" s="43" t="s">
+      <c r="P41" s="41" t="s">
         <v>87</v>
       </c>
       <c r="Q41" s="1"/>
@@ -4285,7 +4276,7 @@
         <v>49</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J42" s="3">
         <v>48.061199999999999</v>
@@ -4305,7 +4296,7 @@
       <c r="O42" s="8">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="P42" s="43" t="s">
+      <c r="P42" s="41" t="s">
         <v>87</v>
       </c>
       <c r="Q42" s="1"/>
@@ -4336,7 +4327,7 @@
         <v>86</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J43" s="3">
         <v>37.101399999999998</v>
@@ -4356,7 +4347,7 @@
       <c r="O43" s="8">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="P43" s="43" t="s">
+      <c r="P43" s="41" t="s">
         <v>87</v>
       </c>
       <c r="Q43" s="1"/>
@@ -4387,7 +4378,7 @@
         <v>31</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J44" s="3">
         <v>32.444299999999998</v>
@@ -4407,7 +4398,7 @@
       <c r="O44" s="8">
         <v>3.9E-2</v>
       </c>
-      <c r="P44" s="43" t="s">
+      <c r="P44" s="41" t="s">
         <v>3</v>
       </c>
       <c r="Q44" s="1"/>
@@ -4438,7 +4429,7 @@
         <v>86</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>86</v>
@@ -4458,7 +4449,7 @@
       <c r="O45" s="8">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="P45" s="43" t="s">
+      <c r="P45" s="41" t="s">
         <v>86</v>
       </c>
       <c r="Q45" s="1"/>
@@ -4489,7 +4480,7 @@
         <v>32</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J46" s="3">
         <v>29.058199999999999</v>
@@ -4509,7 +4500,7 @@
       <c r="O46" s="8">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="P46" s="43" t="s">
+      <c r="P46" s="41" t="s">
         <v>88</v>
       </c>
       <c r="Q46" s="1"/>
@@ -4540,7 +4531,7 @@
         <v>86</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J47" s="3">
         <v>52.028199999999998</v>
@@ -4560,16 +4551,16 @@
       <c r="O47" s="8">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="P47" s="43" t="s">
+      <c r="P47" s="41" t="s">
         <v>94</v>
       </c>
       <c r="Q47" s="1"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" s="46" t="s">
+      <c r="A48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -4591,7 +4582,7 @@
         <v>86</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>86</v>
@@ -4611,17 +4602,17 @@
       <c r="O48" s="8">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="P48" s="43" t="s">
+      <c r="P48" s="41" t="s">
         <v>86</v>
       </c>
       <c r="Q48" s="1"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>345</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>346</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>140</v>
@@ -4635,32 +4626,32 @@
       <c r="F49" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="G49" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="H49" s="23"/>
+      <c r="G49" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="H49" s="3"/>
       <c r="I49" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="J49" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K49" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="L49" s="25">
+        <v>386</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L49" s="8">
         <v>0.92700000000000005</v>
       </c>
-      <c r="M49" s="25">
+      <c r="M49" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="N49" s="25">
+      <c r="N49" s="8">
         <v>0.03</v>
       </c>
-      <c r="O49" s="25">
+      <c r="O49" s="8">
         <v>0.04</v>
       </c>
-      <c r="P49" s="44" t="s">
+      <c r="P49" s="41" t="s">
         <v>86</v>
       </c>
       <c r="Q49" s="1"/>
@@ -4691,7 +4682,7 @@
         <v>2861</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J50" s="3">
         <v>42.941899999999997</v>
@@ -4711,7 +4702,7 @@
       <c r="O50" s="8">
         <v>3.1E-2</v>
       </c>
-      <c r="P50" s="43" t="s">
+      <c r="P50" s="41" t="s">
         <v>88</v>
       </c>
       <c r="Q50" s="1"/>
@@ -4742,7 +4733,7 @@
         <v>86</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J51" s="3">
         <v>41.871400000000001</v>
@@ -4762,7 +4753,7 @@
       <c r="O51" s="8">
         <v>3.1E-2</v>
       </c>
-      <c r="P51" s="43" t="s">
+      <c r="P51" s="41" t="s">
         <v>88</v>
       </c>
       <c r="Q51" s="1"/>
@@ -4793,7 +4784,7 @@
         <v>50</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J52" s="3">
         <v>42.680300000000003</v>
@@ -4813,7 +4804,7 @@
       <c r="O52" s="8">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="P52" s="43" t="s">
+      <c r="P52" s="41" t="s">
         <v>90</v>
       </c>
       <c r="Q52" s="1"/>
@@ -4844,7 +4835,7 @@
         <v>35</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J53" s="3">
         <v>38.000799999999998</v>
@@ -4864,7 +4855,7 @@
       <c r="O53" s="8">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="P53" s="43" t="s">
+      <c r="P53" s="41" t="s">
         <v>90</v>
       </c>
       <c r="Q53" s="1"/>
@@ -4895,7 +4886,7 @@
         <v>58</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J54" s="3">
         <v>42.8489</v>
@@ -4915,7 +4906,7 @@
       <c r="O54" s="8">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="P54" s="43" t="s">
+      <c r="P54" s="41" t="s">
         <v>90</v>
       </c>
       <c r="Q54" s="1"/>
@@ -4946,7 +4937,7 @@
         <v>86</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>86</v>
@@ -4966,7 +4957,7 @@
       <c r="O55" s="8">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="P55" s="43" t="s">
+      <c r="P55" s="41" t="s">
         <v>86</v>
       </c>
       <c r="Q55" s="1"/>
@@ -4997,7 +4988,7 @@
         <v>86</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>86</v>
@@ -5017,7 +5008,7 @@
       <c r="O56" s="8">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="P56" s="43" t="s">
+      <c r="P56" s="41" t="s">
         <v>86</v>
       </c>
       <c r="Q56" s="1"/>
@@ -5048,7 +5039,7 @@
         <v>66</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J57" s="3">
         <v>21.204000000000001</v>
@@ -5068,7 +5059,7 @@
       <c r="O57" s="8">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="P57" s="43" t="s">
+      <c r="P57" s="41" t="s">
         <v>93</v>
       </c>
       <c r="Q57" s="1"/>
@@ -5099,7 +5090,7 @@
         <v>36</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J58" s="3">
         <v>51.3568</v>
@@ -5119,7 +5110,7 @@
       <c r="O58" s="8">
         <v>3.1E-2</v>
       </c>
-      <c r="P58" s="43" t="s">
+      <c r="P58" s="41" t="s">
         <v>93</v>
       </c>
       <c r="Q58" s="1"/>
@@ -5150,7 +5141,7 @@
         <v>86</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>86</v>
@@ -5170,7 +5161,7 @@
       <c r="O59" s="8">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="P59" s="43" t="s">
+      <c r="P59" s="41" t="s">
         <v>86</v>
       </c>
       <c r="Q59" s="1"/>
@@ -5201,7 +5192,7 @@
         <v>86</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J60" s="3">
         <v>44.140099999999997</v>
@@ -5221,7 +5212,7 @@
       <c r="O60" s="8">
         <v>3.1E-2</v>
       </c>
-      <c r="P60" s="43" t="s">
+      <c r="P60" s="41" t="s">
         <v>88</v>
       </c>
       <c r="Q60" s="1"/>
@@ -5252,7 +5243,7 @@
         <v>38</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J61" s="3">
         <v>38.406799999999997</v>
@@ -5272,7 +5263,7 @@
       <c r="O61" s="8">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="P61" s="43" t="s">
+      <c r="P61" s="41" t="s">
         <v>88</v>
       </c>
       <c r="Q61" s="1"/>
@@ -5303,7 +5294,7 @@
         <v>39</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J62" s="3">
         <v>41.333500000000001</v>
@@ -5323,7 +5314,7 @@
       <c r="O62" s="8">
         <v>3.9E-2</v>
       </c>
-      <c r="P62" s="43" t="s">
+      <c r="P62" s="41" t="s">
         <v>88</v>
       </c>
       <c r="Q62" s="1"/>
@@ -5354,7 +5345,7 @@
         <v>73</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J63" s="3">
         <v>34.191499999999998</v>
@@ -5374,17 +5365,17 @@
       <c r="O63" s="8">
         <v>0.04</v>
       </c>
-      <c r="P63" s="43" t="s">
+      <c r="P63" s="41" t="s">
         <v>88</v>
       </c>
       <c r="Q63" s="1"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>334</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>153</v>
@@ -5398,34 +5389,34 @@
       <c r="F64" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="G64" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="H64" s="23" t="s">
+      <c r="G64" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H64" s="3" t="s">
         <v>72</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="J64" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K64" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="L64" s="25">
+        <v>379</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L64" s="8">
         <v>0.92400000000000004</v>
       </c>
-      <c r="M64" s="25">
+      <c r="M64" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="N64" s="25">
+      <c r="N64" s="8">
         <v>3.1E-2</v>
       </c>
-      <c r="O64" s="25">
+      <c r="O64" s="8">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="P64" s="44" t="s">
+      <c r="P64" s="41" t="s">
         <v>86</v>
       </c>
       <c r="Q64" s="1"/>
@@ -5456,7 +5447,7 @@
         <v>41</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J65" s="3">
         <v>35.870600000000003</v>
@@ -5476,7 +5467,7 @@
       <c r="O65" s="8">
         <v>0.04</v>
       </c>
-      <c r="P65" s="43" t="s">
+      <c r="P65" s="41" t="s">
         <v>88</v>
       </c>
       <c r="Q65" s="1"/>
@@ -5507,7 +5498,7 @@
         <v>86</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J66" s="3">
         <v>35.1113</v>
@@ -5527,7 +5518,7 @@
       <c r="O66" s="8">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="P66" s="43" t="s">
+      <c r="P66" s="41" t="s">
         <v>88</v>
       </c>
       <c r="Q66" s="1"/>
@@ -5558,7 +5549,7 @@
         <v>86</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>86</v>
@@ -5578,7 +5569,7 @@
       <c r="O67" s="8">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="P67" s="43" t="s">
+      <c r="P67" s="41" t="s">
         <v>86</v>
       </c>
       <c r="Q67" s="1"/>
@@ -5609,7 +5600,7 @@
         <v>86</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J68" s="3">
         <v>19.989000000000001</v>
@@ -5629,17 +5620,17 @@
       <c r="O68" s="8">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="P68" s="43" t="s">
+      <c r="P68" s="41" t="s">
         <v>88</v>
       </c>
       <c r="Q68" s="1"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>340</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>163</v>
@@ -5648,39 +5639,39 @@
         <v>165</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F69" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="G69" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="H69" s="23" t="s">
-        <v>338</v>
+      <c r="G69" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>337</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="J69" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K69" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="L69" s="25">
+        <v>399</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L69" s="8">
         <v>0.93600000000000005</v>
       </c>
-      <c r="M69" s="25">
+      <c r="M69" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="N69" s="25">
+      <c r="N69" s="8">
         <v>2.4E-2</v>
       </c>
-      <c r="O69" s="25">
+      <c r="O69" s="8">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="P69" s="44" t="s">
+      <c r="P69" s="41" t="s">
         <v>86</v>
       </c>
       <c r="Q69" s="1"/>
@@ -5711,7 +5702,7 @@
         <v>42</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J70" s="3">
         <v>53.017200000000003</v>
@@ -5731,7 +5722,7 @@
       <c r="O70" s="8">
         <v>3.1E-2</v>
       </c>
-      <c r="P70" s="43" t="s">
+      <c r="P70" s="41" t="s">
         <v>88</v>
       </c>
       <c r="Q70" s="1"/>
@@ -5762,7 +5753,7 @@
         <v>86</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J71" s="3">
         <v>54.297499999999999</v>
@@ -5782,7 +5773,7 @@
       <c r="O71" s="8">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="P71" s="43" t="s">
+      <c r="P71" s="41" t="s">
         <v>88</v>
       </c>
       <c r="Q71" s="1"/>
@@ -5813,7 +5804,7 @@
         <v>86</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>86</v>
@@ -5833,7 +5824,7 @@
       <c r="O72" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="P72" s="43" t="s">
+      <c r="P72" s="41" t="s">
         <v>86</v>
       </c>
       <c r="Q72" s="1"/>
@@ -5864,7 +5855,7 @@
         <v>86</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J73" s="3">
         <v>16.634399999999999</v>
@@ -5884,7 +5875,7 @@
       <c r="O73" s="8">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="P73" s="43" t="s">
+      <c r="P73" s="41" t="s">
         <v>87</v>
       </c>
       <c r="Q73" s="1"/>
@@ -5915,7 +5906,7 @@
         <v>44</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J74" s="3">
         <v>43.814900000000002</v>
@@ -5935,7 +5926,7 @@
       <c r="O74" s="8">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="P74" s="43" t="s">
+      <c r="P74" s="41" t="s">
         <v>87</v>
       </c>
       <c r="Q74" s="1"/>
@@ -5966,7 +5957,7 @@
         <v>86</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J75" s="3" t="s">
         <v>86</v>
@@ -5986,7 +5977,7 @@
       <c r="O75" s="8">
         <v>0.10100000000000001</v>
       </c>
-      <c r="P75" s="43" t="s">
+      <c r="P75" s="41" t="s">
         <v>86</v>
       </c>
       <c r="Q75" s="1"/>
@@ -6017,7 +6008,7 @@
         <v>45</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J76" s="3">
         <v>54.375100000000003</v>
@@ -6037,7 +6028,7 @@
       <c r="O76" s="8">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="P76" s="43" t="s">
+      <c r="P76" s="41" t="s">
         <v>4</v>
       </c>
       <c r="Q76" s="1"/>
@@ -6068,7 +6059,7 @@
         <v>68</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J77" s="3">
         <v>23.461500000000001</v>
@@ -6088,7 +6079,7 @@
       <c r="O77" s="8">
         <v>7.8E-2</v>
       </c>
-      <c r="P77" s="43" t="s">
+      <c r="P77" s="41" t="s">
         <v>4</v>
       </c>
       <c r="Q77" s="1"/>
@@ -6119,7 +6110,7 @@
         <v>69</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J78" s="3">
         <v>12.8621</v>
@@ -6139,16 +6130,16 @@
       <c r="O78" s="8">
         <v>0.18</v>
       </c>
-      <c r="P78" s="43" t="s">
+      <c r="P78" s="41" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>328</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>170</v>
@@ -6157,7 +6148,7 @@
         <v>172</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F79" s="16" t="s">
         <v>84</v>
@@ -6165,41 +6156,41 @@
       <c r="G79" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="H79" s="23" t="s">
-        <v>329</v>
+      <c r="H79" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="J79" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K79" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="L79" s="25">
+        <v>383</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L79" s="8">
         <v>0.94799999999999995</v>
       </c>
-      <c r="M79" s="25">
+      <c r="M79" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="N79" s="25">
+      <c r="N79" s="8">
         <v>1.9E-2</v>
       </c>
-      <c r="O79" s="25">
+      <c r="O79" s="8">
         <v>0.03</v>
       </c>
-      <c r="P79" s="44" t="s">
+      <c r="P79" s="41" t="s">
         <v>86</v>
       </c>
       <c r="Q79" s="1"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>170</v>
@@ -6220,7 +6211,7 @@
         <v>86</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J80" s="3">
         <v>36.374899999999997</v>
@@ -6240,7 +6231,7 @@
       <c r="O80" s="8">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="P80" s="43" t="s">
+      <c r="P80" s="41" t="s">
         <v>4</v>
       </c>
       <c r="Q80" s="1"/>
@@ -6271,7 +6262,7 @@
         <v>86</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J81" s="3">
         <v>24.551600000000001</v>
@@ -6291,7 +6282,7 @@
       <c r="O81" s="8">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="P81" s="43" t="s">
+      <c r="P81" s="41" t="s">
         <v>4</v>
       </c>
       <c r="Q81" s="1"/>
@@ -6322,7 +6313,7 @@
         <v>47</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J82" s="3">
         <v>50.179400000000001</v>
@@ -6342,17 +6333,17 @@
       <c r="O82" s="8">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="P82" s="43" t="s">
+      <c r="P82" s="41" t="s">
         <v>4</v>
       </c>
       <c r="Q82" s="1"/>
     </row>
     <row r="83" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="B83" s="14" t="s">
         <v>317</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>318</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>170</v>
@@ -6367,13 +6358,13 @@
         <v>84</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>48</v>
       </c>
       <c r="I83" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J83" s="14">
         <v>51.6798</v>
@@ -6393,124 +6384,124 @@
       <c r="O83" s="15">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="P83" s="45" t="s">
+      <c r="P83" s="42" t="s">
         <v>4</v>
       </c>
       <c r="Q83" s="1"/>
     </row>
     <row r="84" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="I85" s="28" t="s">
-        <v>348</v>
-      </c>
-      <c r="J85" s="31">
+      <c r="I85" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="J85" s="29">
         <f>AVERAGE(J3:J83)</f>
-        <v>40.54954677419353</v>
-      </c>
-      <c r="K85" s="32">
+        <v>40.056119682539666</v>
+      </c>
+      <c r="K85" s="30">
         <f>AVERAGE(K3:K83)</f>
-        <v>97.813941935483868</v>
-      </c>
-      <c r="L85" s="33">
+        <v>97.244987301587287</v>
+      </c>
+      <c r="L85" s="31">
         <f>AVERAGE(L2:L83)</f>
         <v>0.90182716049382716</v>
       </c>
-      <c r="M85" s="33">
+      <c r="M85" s="31">
         <f>AVERAGE(M2:M83)</f>
         <v>3.6790123456790151E-3</v>
       </c>
-      <c r="N85" s="33">
+      <c r="N85" s="31">
         <f>AVERAGE(N2:N83)</f>
         <v>3.1320987654320988E-2</v>
       </c>
-      <c r="O85" s="34">
+      <c r="O85" s="32">
         <f>AVERAGE(O2:O83)</f>
         <v>6.3172839506172848E-2</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="I86" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="J86" s="35">
+      <c r="I86" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="J86" s="33">
         <f t="shared" ref="J86:O86" si="0">STDEV(J2:J83)</f>
-        <v>13.692026720719362</v>
-      </c>
-      <c r="K86" s="36">
+        <v>14.13458484983034</v>
+      </c>
+      <c r="K86" s="34">
         <f t="shared" si="0"/>
-        <v>23.703830723687535</v>
-      </c>
-      <c r="L86" s="37">
+        <v>23.941654842840613</v>
+      </c>
+      <c r="L86" s="35">
         <f t="shared" si="0"/>
         <v>0.1056120009898799</v>
       </c>
-      <c r="M86" s="37">
+      <c r="M86" s="35">
         <f t="shared" si="0"/>
         <v>1.7736062168208814E-3</v>
       </c>
-      <c r="N86" s="37">
+      <c r="N86" s="35">
         <f t="shared" si="0"/>
         <v>1.7774860871814024E-2</v>
       </c>
-      <c r="O86" s="38">
+      <c r="O86" s="36">
         <f t="shared" si="0"/>
         <v>9.7654594121763735E-2</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="I87" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="J87" s="35">
+      <c r="I87" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="J87" s="33">
         <f t="shared" ref="J87:O87" si="1">MIN(J2:J83)</f>
-        <v>10.4152</v>
-      </c>
-      <c r="K87" s="36">
+        <v>9.4636399999999998</v>
+      </c>
+      <c r="K87" s="34">
         <f t="shared" si="1"/>
         <v>60.374099999999999</v>
       </c>
-      <c r="L87" s="37">
+      <c r="L87" s="35">
         <f t="shared" si="1"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M87" s="37">
+      <c r="M87" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N87" s="37">
+      <c r="N87" s="35">
         <f t="shared" si="1"/>
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="O87" s="38">
+      <c r="O87" s="36">
         <f t="shared" si="1"/>
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I88" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="J88" s="39">
+      <c r="I88" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="J88" s="37">
         <f t="shared" ref="J88:O88" si="2">MAX(J2:J83)</f>
         <v>84.189099999999996</v>
       </c>
-      <c r="K88" s="40">
+      <c r="K88" s="38">
         <f t="shared" si="2"/>
         <v>166.40899999999999</v>
       </c>
-      <c r="L88" s="41">
+      <c r="L88" s="39">
         <f t="shared" si="2"/>
         <v>0.95799999999999996</v>
       </c>
-      <c r="M88" s="41">
+      <c r="M88" s="39">
         <f t="shared" si="2"/>
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="N88" s="41">
+      <c r="N88" s="39">
         <f t="shared" si="2"/>
         <v>0.107</v>
       </c>
-      <c r="O88" s="42">
+      <c r="O88" s="40">
         <f t="shared" si="2"/>
         <v>0.88</v>
       </c>
